--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Epo-Crlf3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Epo-Crlf3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Epo</t>
+  </si>
+  <si>
+    <t>Crlf3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Epo</t>
-  </si>
-  <si>
-    <t>Crlf3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2802683333333333</v>
+        <v>0.06883400000000001</v>
       </c>
       <c r="H2">
-        <v>0.8408049999999999</v>
+        <v>0.137668</v>
       </c>
       <c r="I2">
-        <v>0.4358205226290477</v>
+        <v>0.2715864770971961</v>
       </c>
       <c r="J2">
-        <v>0.4808287269437477</v>
+        <v>0.2468863036815592</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.8522475</v>
+        <v>6.940246</v>
       </c>
       <c r="N2">
-        <v>9.704495</v>
+        <v>13.880492</v>
       </c>
       <c r="O2">
-        <v>0.0772765576521135</v>
+        <v>0.09091517850100791</v>
       </c>
       <c r="P2">
-        <v>0.05509289466154202</v>
+        <v>0.06488050728924892</v>
       </c>
       <c r="Q2">
-        <v>1.359931319745833</v>
+        <v>0.4777248931640001</v>
       </c>
       <c r="R2">
-        <v>8.159587918474999</v>
+        <v>1.910899572656</v>
       </c>
       <c r="S2">
-        <v>0.03367870974291785</v>
+        <v>0.02469133304375148</v>
       </c>
       <c r="T2">
-        <v>0.02649024640375524</v>
+        <v>0.01601810862562713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2802683333333333</v>
+        <v>0.06883400000000001</v>
       </c>
       <c r="H3">
-        <v>0.8408049999999999</v>
+        <v>0.137668</v>
       </c>
       <c r="I3">
-        <v>0.4358205226290477</v>
+        <v>0.2715864770971961</v>
       </c>
       <c r="J3">
-        <v>0.4808287269437477</v>
+        <v>0.2468863036815592</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.217754</v>
       </c>
       <c r="O3">
-        <v>0.05424241419782711</v>
+        <v>0.04461652266069471</v>
       </c>
       <c r="P3">
-        <v>0.0580066912085121</v>
+        <v>0.04776005511020447</v>
       </c>
       <c r="Q3">
-        <v>0.9545709613299997</v>
+        <v>0.234442959612</v>
       </c>
       <c r="R3">
-        <v>8.591138651969999</v>
+        <v>1.406657757672</v>
       </c>
       <c r="S3">
-        <v>0.02363995730435829</v>
+        <v>0.0121172442097453</v>
       </c>
       <c r="T3">
-        <v>0.02789128348800796</v>
+        <v>0.01179130346978594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2802683333333333</v>
+        <v>0.06883400000000001</v>
       </c>
       <c r="H4">
-        <v>0.8408049999999999</v>
+        <v>0.137668</v>
       </c>
       <c r="I4">
-        <v>0.4358205226290477</v>
+        <v>0.2715864770971961</v>
       </c>
       <c r="J4">
-        <v>0.4808287269437477</v>
+        <v>0.2468863036815592</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.37682</v>
+        <v>22.37653933333333</v>
       </c>
       <c r="N4">
-        <v>55.13046</v>
+        <v>67.12961799999999</v>
       </c>
       <c r="O4">
-        <v>0.2926679626693635</v>
+        <v>0.293126074742138</v>
       </c>
       <c r="P4">
-        <v>0.3129783286427945</v>
+        <v>0.3137787673501411</v>
       </c>
       <c r="Q4">
-        <v>5.150440713366665</v>
+        <v>1.540266708470666</v>
       </c>
       <c r="R4">
-        <v>46.3539664203</v>
+        <v>9.241600250824</v>
       </c>
       <c r="S4">
-        <v>0.1275507044473407</v>
+        <v>0.07960907798454665</v>
       </c>
       <c r="T4">
-        <v>0.1504889713222968</v>
+        <v>0.07746768004483226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2802683333333333</v>
+        <v>0.06883400000000001</v>
       </c>
       <c r="H5">
-        <v>0.8408049999999999</v>
+        <v>0.137668</v>
       </c>
       <c r="I5">
-        <v>0.4358205226290477</v>
+        <v>0.2715864770971961</v>
       </c>
       <c r="J5">
-        <v>0.4808287269437477</v>
+        <v>0.2468863036815592</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.3719375</v>
+        <v>8.133210500000001</v>
       </c>
       <c r="N5">
-        <v>14.743875</v>
+        <v>16.266421</v>
       </c>
       <c r="O5">
-        <v>0.1174049660959231</v>
+        <v>0.1065426620891784</v>
       </c>
       <c r="P5">
-        <v>0.08370170238409549</v>
+        <v>0.07603287017927692</v>
       </c>
       <c r="Q5">
-        <v>2.066120636562499</v>
+        <v>0.5598414115570001</v>
       </c>
       <c r="R5">
-        <v>12.396723819375</v>
+        <v>2.239365646228</v>
       </c>
       <c r="S5">
-        <v>0.05116749368317082</v>
+        <v>0.02893554625735695</v>
       </c>
       <c r="T5">
-        <v>0.04024618300036909</v>
+        <v>0.01877147427686153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2802683333333333</v>
+        <v>0.06883400000000001</v>
       </c>
       <c r="H6">
-        <v>0.8408049999999999</v>
+        <v>0.137668</v>
       </c>
       <c r="I6">
-        <v>0.4358205226290477</v>
+        <v>0.2715864770971961</v>
       </c>
       <c r="J6">
-        <v>0.4808287269437477</v>
+        <v>0.2468863036815592</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.839642666666666</v>
+        <v>22.36440133333333</v>
       </c>
       <c r="N6">
-        <v>11.518928</v>
+        <v>67.093204</v>
       </c>
       <c r="O6">
-        <v>0.06114988320240908</v>
+        <v>0.2929670705171228</v>
       </c>
       <c r="P6">
-        <v>0.06539351990164216</v>
+        <v>0.3136085602139366</v>
       </c>
       <c r="Q6">
-        <v>1.076130250782222</v>
+        <v>1.539431201378667</v>
       </c>
       <c r="R6">
-        <v>9.685172257039998</v>
+        <v>9.236587208272001</v>
       </c>
       <c r="S6">
-        <v>0.02665037405597916</v>
+        <v>0.07956589458723121</v>
       </c>
       <c r="T6">
-        <v>0.03144308292467723</v>
+        <v>0.0774256582341145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.2802683333333333</v>
+        <v>0.06883400000000001</v>
       </c>
       <c r="H7">
-        <v>0.8408049999999999</v>
+        <v>0.137668</v>
       </c>
       <c r="I7">
-        <v>0.4358205226290477</v>
+        <v>0.2715864770971961</v>
       </c>
       <c r="J7">
-        <v>0.4808287269437477</v>
+        <v>0.2468863036815592</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.944113</v>
+        <v>13.117279</v>
       </c>
       <c r="N7">
-        <v>74.832339</v>
+        <v>39.351837</v>
       </c>
       <c r="O7">
-        <v>0.3972582161823637</v>
+        <v>0.1718324914898582</v>
       </c>
       <c r="P7">
-        <v>0.4248268632014137</v>
+        <v>0.183939239857192</v>
       </c>
       <c r="Q7">
-        <v>6.991044976988332</v>
+        <v>0.902914782686</v>
       </c>
       <c r="R7">
-        <v>62.91940479289499</v>
+        <v>5.417488696116</v>
       </c>
       <c r="S7">
-        <v>0.173133283395281</v>
+        <v>0.04666738101456452</v>
       </c>
       <c r="T7">
-        <v>0.2042689598046414</v>
+        <v>0.04541207903033787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.180588</v>
+        <v>0.1339035</v>
       </c>
       <c r="H8">
-        <v>0.3611760000000001</v>
+        <v>0.267807</v>
       </c>
       <c r="I8">
-        <v>0.2808164433151605</v>
+        <v>0.5283200138882588</v>
       </c>
       <c r="J8">
-        <v>0.2065446759743758</v>
+        <v>0.4802705082520798</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.8522475</v>
+        <v>6.940246</v>
       </c>
       <c r="N8">
-        <v>9.704495</v>
+        <v>13.880492</v>
       </c>
       <c r="O8">
-        <v>0.0772765576521135</v>
+        <v>0.09091517850100791</v>
       </c>
       <c r="P8">
-        <v>0.05509289466154202</v>
+        <v>0.06488050728924892</v>
       </c>
       <c r="Q8">
-        <v>0.8762576715300001</v>
+        <v>0.9293232302610001</v>
       </c>
       <c r="R8">
-        <v>3.50503068612</v>
+        <v>3.717292921044</v>
       </c>
       <c r="S8">
-        <v>0.02170052807150546</v>
+        <v>0.04803230836830603</v>
       </c>
       <c r="T8">
-        <v>0.01137914407635862</v>
+        <v>0.03116019421146035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.180588</v>
+        <v>0.1339035</v>
       </c>
       <c r="H9">
-        <v>0.3611760000000001</v>
+        <v>0.267807</v>
       </c>
       <c r="I9">
-        <v>0.2808164433151605</v>
+        <v>0.5283200138882588</v>
       </c>
       <c r="J9">
-        <v>0.2065446759743758</v>
+        <v>0.4802705082520798</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>10.217754</v>
       </c>
       <c r="O9">
-        <v>0.05424241419782711</v>
+        <v>0.04461652266069471</v>
       </c>
       <c r="P9">
-        <v>0.0580066912085121</v>
+        <v>0.04776005511020447</v>
       </c>
       <c r="Q9">
-        <v>0.615067919784</v>
+        <v>0.456064340913</v>
       </c>
       <c r="R9">
-        <v>3.690407518704</v>
+        <v>2.736386045478</v>
       </c>
       <c r="S9">
-        <v>0.01523216183186157</v>
+        <v>0.02357180187174404</v>
       </c>
       <c r="T9">
-        <v>0.01198097324000781</v>
+        <v>0.02293774594192524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.180588</v>
+        <v>0.1339035</v>
       </c>
       <c r="H10">
-        <v>0.3611760000000001</v>
+        <v>0.267807</v>
       </c>
       <c r="I10">
-        <v>0.2808164433151605</v>
+        <v>0.5283200138882588</v>
       </c>
       <c r="J10">
-        <v>0.2065446759743758</v>
+        <v>0.4802705082520798</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.37682</v>
+        <v>22.37653933333333</v>
       </c>
       <c r="N10">
-        <v>55.13046</v>
+        <v>67.12961799999999</v>
       </c>
       <c r="O10">
-        <v>0.2926679626693635</v>
+        <v>0.293126074742138</v>
       </c>
       <c r="P10">
-        <v>0.3129783286427945</v>
+        <v>0.3137787673501411</v>
       </c>
       <c r="Q10">
-        <v>3.31863317016</v>
+        <v>2.996296934621</v>
       </c>
       <c r="R10">
-        <v>19.91179902096</v>
+        <v>17.977781607726</v>
       </c>
       <c r="S10">
-        <v>0.08218597634910482</v>
+        <v>0.1548643718787771</v>
       </c>
       <c r="T10">
-        <v>0.06464400747652771</v>
+        <v>0.1506986880739634</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.180588</v>
+        <v>0.1339035</v>
       </c>
       <c r="H11">
-        <v>0.3611760000000001</v>
+        <v>0.267807</v>
       </c>
       <c r="I11">
-        <v>0.2808164433151605</v>
+        <v>0.5283200138882588</v>
       </c>
       <c r="J11">
-        <v>0.2065446759743758</v>
+        <v>0.4802705082520798</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.3719375</v>
+        <v>8.133210500000001</v>
       </c>
       <c r="N11">
-        <v>14.743875</v>
+        <v>16.266421</v>
       </c>
       <c r="O11">
-        <v>0.1174049660959231</v>
+        <v>0.1065426620891784</v>
       </c>
       <c r="P11">
-        <v>0.08370170238409549</v>
+        <v>0.07603287017927692</v>
       </c>
       <c r="Q11">
-        <v>1.33128344925</v>
+        <v>1.08906535218675</v>
       </c>
       <c r="R11">
-        <v>5.325133797</v>
+        <v>4.356261408747001</v>
       </c>
       <c r="S11">
-        <v>0.03296924500659412</v>
+        <v>0.05628862071464678</v>
       </c>
       <c r="T11">
-        <v>0.01728814099742665</v>
+        <v>0.03651634520486573</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.180588</v>
+        <v>0.1339035</v>
       </c>
       <c r="H12">
-        <v>0.3611760000000001</v>
+        <v>0.267807</v>
       </c>
       <c r="I12">
-        <v>0.2808164433151605</v>
+        <v>0.5283200138882588</v>
       </c>
       <c r="J12">
-        <v>0.2065446759743758</v>
+        <v>0.4802705082520798</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.839642666666666</v>
+        <v>22.36440133333333</v>
       </c>
       <c r="N12">
-        <v>11.518928</v>
+        <v>67.093204</v>
       </c>
       <c r="O12">
-        <v>0.06114988320240908</v>
+        <v>0.2929670705171228</v>
       </c>
       <c r="P12">
-        <v>0.06539351990164216</v>
+        <v>0.3136085602139366</v>
       </c>
       <c r="Q12">
-        <v>0.693393389888</v>
+        <v>2.994671613938</v>
       </c>
       <c r="R12">
-        <v>4.160360339328</v>
+        <v>17.968029683628</v>
       </c>
       <c r="S12">
-        <v>0.01717189271003799</v>
+        <v>0.1547803667644088</v>
       </c>
       <c r="T12">
-        <v>0.01350668337890858</v>
+        <v>0.1506169426061503</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.180588</v>
+        <v>0.1339035</v>
       </c>
       <c r="H13">
-        <v>0.3611760000000001</v>
+        <v>0.267807</v>
       </c>
       <c r="I13">
-        <v>0.2808164433151605</v>
+        <v>0.5283200138882588</v>
       </c>
       <c r="J13">
-        <v>0.2065446759743758</v>
+        <v>0.4802705082520798</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.944113</v>
+        <v>13.117279</v>
       </c>
       <c r="N13">
-        <v>74.832339</v>
+        <v>39.351837</v>
       </c>
       <c r="O13">
-        <v>0.3972582161823637</v>
+        <v>0.1718324914898582</v>
       </c>
       <c r="P13">
-        <v>0.4248268632014137</v>
+        <v>0.183939239857192</v>
       </c>
       <c r="Q13">
-        <v>4.504607478444001</v>
+        <v>1.7564495685765</v>
       </c>
       <c r="R13">
-        <v>27.02764487066401</v>
+        <v>10.538697411459</v>
       </c>
       <c r="S13">
-        <v>0.1115566393460565</v>
+        <v>0.09078254429037599</v>
       </c>
       <c r="T13">
-        <v>0.08774572680514649</v>
+        <v>0.08834059221371483</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.061722</v>
+        <v>0.050714</v>
       </c>
       <c r="H14">
-        <v>0.185166</v>
+        <v>0.152142</v>
       </c>
       <c r="I14">
-        <v>0.09597842887843229</v>
+        <v>0.2000935090145452</v>
       </c>
       <c r="J14">
-        <v>0.105890345625045</v>
+        <v>0.2728431880663609</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.8522475</v>
+        <v>6.940246</v>
       </c>
       <c r="N14">
-        <v>9.704495</v>
+        <v>13.880492</v>
       </c>
       <c r="O14">
-        <v>0.0772765576521135</v>
+        <v>0.09091517850100791</v>
       </c>
       <c r="P14">
-        <v>0.05509289466154202</v>
+        <v>0.06488050728924892</v>
       </c>
       <c r="Q14">
-        <v>0.299490420195</v>
+        <v>0.351967635644</v>
       </c>
       <c r="R14">
-        <v>1.79694252117</v>
+        <v>2.111805813864</v>
       </c>
       <c r="S14">
-        <v>0.007416882592583448</v>
+        <v>0.01819153708895041</v>
       </c>
       <c r="T14">
-        <v>0.005833805657194883</v>
+        <v>0.01770220445216144</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.061722</v>
+        <v>0.050714</v>
       </c>
       <c r="H15">
-        <v>0.185166</v>
+        <v>0.152142</v>
       </c>
       <c r="I15">
-        <v>0.09597842887843229</v>
+        <v>0.2000935090145452</v>
       </c>
       <c r="J15">
-        <v>0.105890345625045</v>
+        <v>0.2728431880663609</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.217754</v>
       </c>
       <c r="O15">
-        <v>0.05424241419782711</v>
+        <v>0.04461652266069471</v>
       </c>
       <c r="P15">
-        <v>0.0580066912085121</v>
+        <v>0.04776005511020447</v>
       </c>
       <c r="Q15">
-        <v>0.210220070796</v>
+        <v>0.172727725452</v>
       </c>
       <c r="R15">
-        <v>1.891980637164</v>
+        <v>1.554549529068</v>
       </c>
       <c r="S15">
-        <v>0.005206101693280616</v>
+        <v>0.008927476579205378</v>
       </c>
       <c r="T15">
-        <v>0.006142348580634608</v>
+        <v>0.01303100569849328</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.061722</v>
+        <v>0.050714</v>
       </c>
       <c r="H16">
-        <v>0.185166</v>
+        <v>0.152142</v>
       </c>
       <c r="I16">
-        <v>0.09597842887843229</v>
+        <v>0.2000935090145452</v>
       </c>
       <c r="J16">
-        <v>0.105890345625045</v>
+        <v>0.2728431880663609</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.37682</v>
+        <v>22.37653933333333</v>
       </c>
       <c r="N16">
-        <v>55.13046</v>
+        <v>67.12961799999999</v>
       </c>
       <c r="O16">
-        <v>0.2926679626693635</v>
+        <v>0.293126074742138</v>
       </c>
       <c r="P16">
-        <v>0.3129783286427945</v>
+        <v>0.3137787673501411</v>
       </c>
       <c r="Q16">
-        <v>1.13425408404</v>
+        <v>1.134803815750667</v>
       </c>
       <c r="R16">
-        <v>10.20828675636</v>
+        <v>10.213234341756</v>
       </c>
       <c r="S16">
-        <v>0.02808981124005718</v>
+        <v>0.05865262487881424</v>
       </c>
       <c r="T16">
-        <v>0.03314138339313445</v>
+        <v>0.08561239923134546</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.061722</v>
+        <v>0.050714</v>
       </c>
       <c r="H17">
-        <v>0.185166</v>
+        <v>0.152142</v>
       </c>
       <c r="I17">
-        <v>0.09597842887843229</v>
+        <v>0.2000935090145452</v>
       </c>
       <c r="J17">
-        <v>0.105890345625045</v>
+        <v>0.2728431880663609</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.3719375</v>
+        <v>8.133210500000001</v>
       </c>
       <c r="N17">
-        <v>14.743875</v>
+        <v>16.266421</v>
       </c>
       <c r="O17">
-        <v>0.1174049660959231</v>
+        <v>0.1065426620891784</v>
       </c>
       <c r="P17">
-        <v>0.08370170238409549</v>
+        <v>0.07603287017927692</v>
       </c>
       <c r="Q17">
-        <v>0.455010726375</v>
+        <v>0.412467637297</v>
       </c>
       <c r="R17">
-        <v>2.73006435825</v>
+        <v>2.474805823782</v>
       </c>
       <c r="S17">
-        <v>0.01126834418841231</v>
+        <v>0.02131849511717466</v>
       </c>
       <c r="T17">
-        <v>0.008863202194856529</v>
+        <v>0.02074505069754966</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.061722</v>
+        <v>0.050714</v>
       </c>
       <c r="H18">
-        <v>0.185166</v>
+        <v>0.152142</v>
       </c>
       <c r="I18">
-        <v>0.09597842887843229</v>
+        <v>0.2000935090145452</v>
       </c>
       <c r="J18">
-        <v>0.105890345625045</v>
+        <v>0.2728431880663609</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.839642666666666</v>
+        <v>22.36440133333333</v>
       </c>
       <c r="N18">
-        <v>11.518928</v>
+        <v>67.093204</v>
       </c>
       <c r="O18">
-        <v>0.06114988320240908</v>
+        <v>0.2929670705171228</v>
       </c>
       <c r="P18">
-        <v>0.06539351990164216</v>
+        <v>0.3136085602139366</v>
       </c>
       <c r="Q18">
-        <v>0.236990424672</v>
+        <v>1.134188249218667</v>
       </c>
       <c r="R18">
-        <v>2.132913822048</v>
+        <v>10.207694242968</v>
       </c>
       <c r="S18">
-        <v>0.005869069715866862</v>
+        <v>0.05862080916548281</v>
       </c>
       <c r="T18">
-        <v>0.00692454242402315</v>
+        <v>0.08556595937367177</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.061722</v>
+        <v>0.050714</v>
       </c>
       <c r="H19">
-        <v>0.185166</v>
+        <v>0.152142</v>
       </c>
       <c r="I19">
-        <v>0.09597842887843229</v>
+        <v>0.2000935090145452</v>
       </c>
       <c r="J19">
-        <v>0.105890345625045</v>
+        <v>0.2728431880663609</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.944113</v>
+        <v>13.117279</v>
       </c>
       <c r="N19">
-        <v>74.832339</v>
+        <v>39.351837</v>
       </c>
       <c r="O19">
-        <v>0.3972582161823637</v>
+        <v>0.1718324914898582</v>
       </c>
       <c r="P19">
-        <v>0.4248268632014137</v>
+        <v>0.183939239857192</v>
       </c>
       <c r="Q19">
-        <v>1.539600542586</v>
+        <v>0.665229687206</v>
       </c>
       <c r="R19">
-        <v>13.856404883274</v>
+        <v>5.987067184853999</v>
       </c>
       <c r="S19">
-        <v>0.03812821944823188</v>
+        <v>0.03438256618491771</v>
       </c>
       <c r="T19">
-        <v>0.04498506337520142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.1205036666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.361511</v>
-      </c>
-      <c r="I20">
-        <v>0.1873846051773594</v>
-      </c>
-      <c r="J20">
-        <v>0.2067362514568315</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>4.8522475</v>
-      </c>
-      <c r="N20">
-        <v>9.704495</v>
-      </c>
-      <c r="O20">
-        <v>0.0772765576521135</v>
-      </c>
-      <c r="P20">
-        <v>0.05509289466154202</v>
-      </c>
-      <c r="Q20">
-        <v>0.5847136153241667</v>
-      </c>
-      <c r="R20">
-        <v>3.508281691945</v>
-      </c>
-      <c r="S20">
-        <v>0.01448043724510674</v>
-      </c>
-      <c r="T20">
-        <v>0.01138969852423328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1205036666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.361511</v>
-      </c>
-      <c r="I21">
-        <v>0.1873846051773594</v>
-      </c>
-      <c r="J21">
-        <v>0.2067362514568315</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.405918</v>
-      </c>
-      <c r="N21">
-        <v>10.217754</v>
-      </c>
-      <c r="O21">
-        <v>0.05424241419782711</v>
-      </c>
-      <c r="P21">
-        <v>0.0580066912085121</v>
-      </c>
-      <c r="Q21">
-        <v>0.410425607366</v>
-      </c>
-      <c r="R21">
-        <v>3.693830466294</v>
-      </c>
-      <c r="S21">
-        <v>0.01016419336832663</v>
-      </c>
-      <c r="T21">
-        <v>0.01199208589986174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.1205036666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.361511</v>
-      </c>
-      <c r="I22">
-        <v>0.1873846051773594</v>
-      </c>
-      <c r="J22">
-        <v>0.2067362514568315</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>18.37682</v>
-      </c>
-      <c r="N22">
-        <v>55.13046</v>
-      </c>
-      <c r="O22">
-        <v>0.2926679626693635</v>
-      </c>
-      <c r="P22">
-        <v>0.3129783286427945</v>
-      </c>
-      <c r="Q22">
-        <v>2.214474191673333</v>
-      </c>
-      <c r="R22">
-        <v>19.93026772506</v>
-      </c>
-      <c r="S22">
-        <v>0.05484147063286086</v>
-      </c>
-      <c r="T22">
-        <v>0.06470396645083562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.1205036666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.361511</v>
-      </c>
-      <c r="I23">
-        <v>0.1873846051773594</v>
-      </c>
-      <c r="J23">
-        <v>0.2067362514568315</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>7.3719375</v>
-      </c>
-      <c r="N23">
-        <v>14.743875</v>
-      </c>
-      <c r="O23">
-        <v>0.1174049660959231</v>
-      </c>
-      <c r="P23">
-        <v>0.08370170238409549</v>
-      </c>
-      <c r="Q23">
-        <v>0.8883454991875001</v>
-      </c>
-      <c r="R23">
-        <v>5.330072995125</v>
-      </c>
-      <c r="S23">
-        <v>0.02199988321774582</v>
-      </c>
-      <c r="T23">
-        <v>0.01730417619144324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.1205036666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.361511</v>
-      </c>
-      <c r="I24">
-        <v>0.1873846051773594</v>
-      </c>
-      <c r="J24">
-        <v>0.2067362514568315</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>3.839642666666666</v>
-      </c>
-      <c r="N24">
-        <v>11.518928</v>
-      </c>
-      <c r="O24">
-        <v>0.06114988320240908</v>
-      </c>
-      <c r="P24">
-        <v>0.06539351990164216</v>
-      </c>
-      <c r="Q24">
-        <v>0.4626910200231111</v>
-      </c>
-      <c r="R24">
-        <v>4.164219180208</v>
-      </c>
-      <c r="S24">
-        <v>0.01145854672052507</v>
-      </c>
-      <c r="T24">
-        <v>0.01351921117403321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.1205036666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.361511</v>
-      </c>
-      <c r="I25">
-        <v>0.1873846051773594</v>
-      </c>
-      <c r="J25">
-        <v>0.2067362514568315</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>24.944113</v>
-      </c>
-      <c r="N25">
-        <v>74.832339</v>
-      </c>
-      <c r="O25">
-        <v>0.3972582161823637</v>
-      </c>
-      <c r="P25">
-        <v>0.4248268632014137</v>
-      </c>
-      <c r="Q25">
-        <v>3.005857078247667</v>
-      </c>
-      <c r="R25">
-        <v>27.052713704229</v>
-      </c>
-      <c r="S25">
-        <v>0.07444007399279433</v>
-      </c>
-      <c r="T25">
-        <v>0.08782711321642442</v>
+        <v>0.05018656861313931</v>
       </c>
     </row>
   </sheetData>
